--- a/07-прогнозы/2-предсказ-тенденция-рост.xlsx
+++ b/07-прогнозы/2-предсказ-тенденция-рост.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виктория\Desktop\1ppt\Advance_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Advanced Excel - Course\07-прогнозы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CBA709-AE58-41A2-8BFB-B71463849522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{261A6D1A-C6F9-4E24-B9C7-1034E9C2FC7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8448"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,23 +24,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Дата</t>
   </si>
   <si>
     <t>Продажи, тыс. руб.</t>
   </si>
+  <si>
+    <t>Прогноз</t>
+  </si>
+  <si>
+    <r>
+      <t>формула: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=ПРЕДСКАЗ(A38;$B$2:$B$37;$A$2:$A$37)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +92,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF2D2F31"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2D2F31"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -100,16 +134,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -126,6 +161,1488 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Данные!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Продажи, тыс. руб.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Данные!$A$2:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Данные!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>74439.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73343.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72517.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74764.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78175.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81058.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85096.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87902.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86942.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86117.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85218.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84170.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83488.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82731.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81842.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84331.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88323</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94268.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98395.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97898.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97025.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96138.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95305.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94414.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93358.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92554.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94853.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98643.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>101056.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>104889.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108457.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>107743.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>106954.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>106044.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7086-4757-9531-0671B473C6E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Данные!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Прогноз</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Данные!$A$2:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Данные!$C$2:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="35" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>105441</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108087.33799116476</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>109026.29393829661</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>109874.38318086718</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>110813.3391279988</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>111722.00617361022</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>112660.96212074184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113569.62916635326</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>114508.58511348511</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>115447.54106061673</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>116356.20810622815</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>117295.16405336</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>118203.83109897119</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>119142.78704610304</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>120081.74299323466</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120929.83223580522</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>121868.78818293707</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>122777.4552285485</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>123716.41117568011</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>124625.07822129154</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>125564.03416842339</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>126502.990115555</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>127411.65716116643</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>128350.61310829804</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>129259.28015390947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7086-4757-9531-0671B473C6E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1334348559"/>
+        <c:axId val="1334373935"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1334348559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334373935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1334373935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334348559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,36 +1941,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A54412-F264-400F-BE22-EEFFF1C6EA32}">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43101</v>
       </c>
       <c r="B2" s="3">
         <v>74439.899999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43132</v>
       </c>
@@ -461,7 +1984,7 @@
         <v>73343.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43160</v>
       </c>
@@ -469,7 +1992,7 @@
         <v>72517.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43191</v>
       </c>
@@ -477,7 +2000,7 @@
         <v>74764.800000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43221</v>
       </c>
@@ -485,7 +2008,7 @@
         <v>78175.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43252</v>
       </c>
@@ -493,7 +2016,7 @@
         <v>81058.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43282</v>
       </c>
@@ -501,7 +2024,7 @@
         <v>85096.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43313</v>
       </c>
@@ -509,7 +2032,7 @@
         <v>87902.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43344</v>
       </c>
@@ -517,7 +2040,7 @@
         <v>86942.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43374</v>
       </c>
@@ -525,7 +2048,7 @@
         <v>86117.4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43405</v>
       </c>
@@ -533,7 +2056,7 @@
         <v>85218.6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43435</v>
       </c>
@@ -541,7 +2064,7 @@
         <v>84170.1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43466</v>
       </c>
@@ -549,7 +2072,7 @@
         <v>83488.800000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43497</v>
       </c>
@@ -557,7 +2080,7 @@
         <v>82731.600000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>43525</v>
       </c>
@@ -565,7 +2088,7 @@
         <v>81842.7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>43556</v>
       </c>
@@ -573,7 +2096,7 @@
         <v>84331.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>43586</v>
       </c>
@@ -581,7 +2104,7 @@
         <v>88323</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>43617</v>
       </c>
@@ -589,7 +2112,7 @@
         <v>92007</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>43647</v>
       </c>
@@ -597,7 +2120,7 @@
         <v>94268.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43678</v>
       </c>
@@ -605,7 +2128,7 @@
         <v>98395.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43709</v>
       </c>
@@ -613,7 +2136,7 @@
         <v>97898.4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43739</v>
       </c>
@@ -621,7 +2144,7 @@
         <v>97025.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43770</v>
       </c>
@@ -629,7 +2152,7 @@
         <v>96138.3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43800</v>
       </c>
@@ -637,7 +2160,7 @@
         <v>95305.5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>43831</v>
       </c>
@@ -645,7 +2168,7 @@
         <v>94414.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>43862</v>
       </c>
@@ -653,7 +2176,7 @@
         <v>93358.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>43891</v>
       </c>
@@ -661,7 +2184,7 @@
         <v>92554.8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>43922</v>
       </c>
@@ -669,7 +2192,7 @@
         <v>94853.7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>43952</v>
       </c>
@@ -677,7 +2200,7 @@
         <v>98643.6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>43983</v>
       </c>
@@ -685,7 +2208,7 @@
         <v>101056.8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>44013</v>
       </c>
@@ -693,7 +2216,7 @@
         <v>104889.9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>44044</v>
       </c>
@@ -701,7 +2224,7 @@
         <v>108457.2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44075</v>
       </c>
@@ -709,7 +2232,7 @@
         <v>107743.2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>44105</v>
       </c>
@@ -717,7 +2240,7 @@
         <v>106954.8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>44136</v>
       </c>
@@ -725,17 +2248,240 @@
         <v>106044.6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>44166</v>
       </c>
       <c r="B37" s="3">
         <v>105441</v>
+      </c>
+      <c r="C37" s="3">
+        <v>105441</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C38">
+        <f>FORECAST(A38,$B$2:$B$37,$A$2:$A$37)</f>
+        <v>108087.33799116476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C61" si="0">FORECAST(A39,$B$2:$B$37,$A$2:$A$37)</f>
+        <v>109026.29393829661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>109874.38318086718</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>110813.3391279988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>111722.00617361022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>112660.96212074184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>113569.62916635326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>114508.58511348511</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>44440</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>115447.54106061673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>116356.20810622815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>44501</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>117295.16405336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>44531</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>118203.83109897119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>119142.78704610304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>44593</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>120081.74299323466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>44621</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>120929.83223580522</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>121868.78818293707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>44682</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>122777.4552285485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>44713</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>123716.41117568011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>124625.07822129154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>44774</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>125564.03416842339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>44805</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>126502.990115555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>44835</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>127411.65716116643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>44866</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>128350.61310829804</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>44896</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>129259.28015390947</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>